--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Spon2</t>
+  </si>
+  <si>
+    <t>Itgam</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Spon2</t>
-  </si>
-  <si>
-    <t>Itgam</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H2">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I2">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J2">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N2">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O2">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P2">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q2">
-        <v>0.002398954608222222</v>
+        <v>0.8292548436706666</v>
       </c>
       <c r="R2">
-        <v>0.021590591474</v>
+        <v>7.463293593036</v>
       </c>
       <c r="S2">
-        <v>1.779988660921206E-06</v>
+        <v>0.0004265241363743006</v>
       </c>
       <c r="T2">
-        <v>1.779988660921207E-06</v>
+        <v>0.0004265241363743006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H3">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I3">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J3">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N3">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q3">
-        <v>18.55744723706222</v>
+        <v>0.01103500156211111</v>
       </c>
       <c r="R3">
-        <v>167.01702513356</v>
+        <v>0.09931501405900001</v>
       </c>
       <c r="S3">
-        <v>0.01376935000954152</v>
+        <v>5.675811901603717E-06</v>
       </c>
       <c r="T3">
-        <v>0.01376935000954152</v>
+        <v>5.675811901603717E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H4">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I4">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J4">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N4">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q4">
-        <v>24.27367136229</v>
+        <v>147.2937806039707</v>
       </c>
       <c r="R4">
-        <v>218.46304226061</v>
+        <v>1325.644025435736</v>
       </c>
       <c r="S4">
-        <v>0.01801070334374649</v>
+        <v>0.07576000676381288</v>
       </c>
       <c r="T4">
-        <v>0.01801070334374649</v>
+        <v>0.07576000676381288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H5">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I5">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J5">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.47189100000001</v>
+        <v>196.552851</v>
       </c>
       <c r="N5">
-        <v>241.415673</v>
+        <v>589.658553</v>
       </c>
       <c r="O5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q5">
-        <v>12.28381956944067</v>
+        <v>138.012663657649</v>
       </c>
       <c r="R5">
-        <v>110.554376124966</v>
+        <v>1242.113972918841</v>
       </c>
       <c r="S5">
-        <v>0.009114411532200606</v>
+        <v>0.07098629887373165</v>
       </c>
       <c r="T5">
-        <v>0.009114411532200604</v>
+        <v>0.07098629887373165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.541923333333334</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H6">
-        <v>7.625770000000001</v>
+        <v>2.106497</v>
       </c>
       <c r="I6">
-        <v>0.6810149697427694</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J6">
-        <v>0.6810149697427693</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01571566666666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N6">
-        <v>0.047147</v>
+        <v>414.554168</v>
       </c>
       <c r="O6">
-        <v>4.352450124452221E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P6">
-        <v>4.352450124452222E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q6">
-        <v>0.03994801979888889</v>
+        <v>97.02856791438845</v>
       </c>
       <c r="R6">
-        <v>0.3595321781900001</v>
+        <v>873.257111229496</v>
       </c>
       <c r="S6">
-        <v>2.964083689810743E-05</v>
+        <v>0.04990628206659653</v>
       </c>
       <c r="T6">
-        <v>2.964083689810743E-05</v>
+        <v>0.04990628206659653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,43 +856,43 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H7">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I7">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J7">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>121.5707266666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N7">
-        <v>364.71218</v>
+        <v>3.542988</v>
       </c>
       <c r="O7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q7">
-        <v>309.0234667642889</v>
+        <v>3.002001288973334</v>
       </c>
       <c r="R7">
-        <v>2781.2112008786</v>
+        <v>27.01801160076</v>
       </c>
       <c r="S7">
-        <v>0.2292908189732793</v>
+        <v>0.001544068167882057</v>
       </c>
       <c r="T7">
-        <v>0.2292908189732792</v>
+        <v>0.001544068167882057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,43 +918,43 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H8">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I8">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J8">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>159.017985</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N8">
-        <v>477.053955</v>
+        <v>0.047147</v>
       </c>
       <c r="O8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q8">
-        <v>404.21152649115</v>
+        <v>0.03994801979888889</v>
       </c>
       <c r="R8">
-        <v>3637.903738420351</v>
+        <v>0.35953217819</v>
       </c>
       <c r="S8">
-        <v>0.2999189444026572</v>
+        <v>2.054711500889514E-05</v>
       </c>
       <c r="T8">
-        <v>0.2999189444026572</v>
+        <v>2.054711500889514E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H9">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I9">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J9">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.47189100000001</v>
+        <v>209.770696</v>
       </c>
       <c r="N9">
-        <v>241.415673</v>
+        <v>629.312088</v>
       </c>
       <c r="O9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q9">
-        <v>204.5533774103567</v>
+        <v>533.2210268119734</v>
       </c>
       <c r="R9">
-        <v>1840.98039669321</v>
+        <v>4798.98924130776</v>
       </c>
       <c r="S9">
-        <v>0.1517755655299348</v>
+        <v>0.2742602466461055</v>
       </c>
       <c r="T9">
-        <v>0.1517755655299348</v>
+        <v>0.2742602466461055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,60 +1030,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05304766666666666</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H10">
-        <v>0.159143</v>
+        <v>7.62577</v>
       </c>
       <c r="I10">
-        <v>0.0142121733713151</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J10">
-        <v>0.01421217337131509</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01571566666666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N10">
-        <v>0.047147</v>
+        <v>589.658553</v>
       </c>
       <c r="O10">
-        <v>4.352450124452221E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P10">
-        <v>4.352450124452222E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q10">
-        <v>0.0008336794467777777</v>
+        <v>499.6222781900901</v>
       </c>
       <c r="R10">
-        <v>0.007503115020999999</v>
+        <v>4496.60050371081</v>
       </c>
       <c r="S10">
-        <v>6.185777575871694E-07</v>
+        <v>0.2569788555893204</v>
       </c>
       <c r="T10">
-        <v>6.185777575871694E-07</v>
+        <v>0.2569788555893204</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,25 +1092,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05304766666666666</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H11">
-        <v>0.159143</v>
+        <v>7.62577</v>
       </c>
       <c r="I11">
-        <v>0.0142121733713151</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J11">
-        <v>0.01421217337131509</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>121.5707266666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N11">
-        <v>364.71218</v>
+        <v>414.554168</v>
       </c>
       <c r="O11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q11">
-        <v>6.449043384637776</v>
+        <v>351.2549708565955</v>
       </c>
       <c r="R11">
-        <v>58.04139046173999</v>
+        <v>3161.29473770936</v>
       </c>
       <c r="S11">
-        <v>0.004785094331964453</v>
+        <v>0.1806666843555865</v>
       </c>
       <c r="T11">
-        <v>0.004785094331964453</v>
+        <v>0.1806666843555865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,46 +1163,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H12">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I12">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J12">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>159.017985</v>
+        <v>1.180996</v>
       </c>
       <c r="N12">
-        <v>477.053955</v>
+        <v>3.542988</v>
       </c>
       <c r="O12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q12">
-        <v>8.435533062285</v>
+        <v>0.1261831239546667</v>
       </c>
       <c r="R12">
-        <v>75.919797560565</v>
+        <v>1.135648115592</v>
       </c>
       <c r="S12">
-        <v>0.00625904014533248</v>
+        <v>6.490181924237256E-05</v>
       </c>
       <c r="T12">
-        <v>0.006259040145332479</v>
+        <v>6.490181924237256E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,51 +1225,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H13">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I13">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J13">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>80.47189100000001</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N13">
-        <v>241.415673</v>
+        <v>0.047147</v>
       </c>
       <c r="O13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q13">
-        <v>4.268846049804334</v>
+        <v>0.001679135166444444</v>
       </c>
       <c r="R13">
-        <v>38.419614448239</v>
+        <v>0.015112216498</v>
       </c>
       <c r="S13">
-        <v>0.003167420316260576</v>
+        <v>8.636569110084874E-07</v>
       </c>
       <c r="T13">
-        <v>0.003167420316260575</v>
+        <v>8.636569110084874E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,60 +1278,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.8420873333333333</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H14">
-        <v>2.526262</v>
+        <v>0.320534</v>
       </c>
       <c r="I14">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J14">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.01571566666666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N14">
-        <v>0.047147</v>
+        <v>629.312088</v>
       </c>
       <c r="O14">
-        <v>4.352450124452221E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P14">
-        <v>4.352450124452222E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q14">
-        <v>0.01323396383488889</v>
+        <v>22.41288009055467</v>
       </c>
       <c r="R14">
-        <v>0.119105674514</v>
+        <v>201.715920814992</v>
       </c>
       <c r="S14">
-        <v>9.81940445409272E-06</v>
+        <v>0.01152798129217938</v>
       </c>
       <c r="T14">
-        <v>9.819404454092722E-06</v>
+        <v>0.01152798129217938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,25 +1340,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.8420873333333333</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H15">
-        <v>2.526262</v>
+        <v>0.320534</v>
       </c>
       <c r="I15">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J15">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>121.5707266666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N15">
-        <v>364.71218</v>
+        <v>589.658553</v>
       </c>
       <c r="O15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q15">
-        <v>102.3731690301289</v>
+        <v>21.000623847478</v>
       </c>
       <c r="R15">
-        <v>921.3585212711599</v>
+        <v>189.005614627302</v>
       </c>
       <c r="S15">
-        <v>0.07595936973198435</v>
+        <v>0.01080159256015684</v>
       </c>
       <c r="T15">
-        <v>0.07595936973198435</v>
+        <v>0.01080159256015684</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1405,22 +1405,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8420873333333333</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H16">
-        <v>2.526262</v>
+        <v>0.320534</v>
       </c>
       <c r="I16">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J16">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>159.017985</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N16">
-        <v>477.053955</v>
+        <v>414.554168</v>
       </c>
       <c r="O16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q16">
-        <v>133.90703094069</v>
+        <v>14.76430063174578</v>
       </c>
       <c r="R16">
-        <v>1205.16327846621</v>
+        <v>132.878705685712</v>
       </c>
       <c r="S16">
-        <v>0.09935702654611214</v>
+        <v>0.007593962970720799</v>
       </c>
       <c r="T16">
-        <v>0.09935702654611213</v>
+        <v>0.007593962970720799</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H17">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I17">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J17">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>80.47189100000001</v>
+        <v>1.180996</v>
       </c>
       <c r="N17">
-        <v>241.415673</v>
+        <v>3.542988</v>
       </c>
       <c r="O17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q17">
-        <v>67.76436010048067</v>
+        <v>0.1051330512506667</v>
       </c>
       <c r="R17">
-        <v>609.879240904326</v>
+        <v>0.946197461256</v>
       </c>
       <c r="S17">
-        <v>0.05028014793611454</v>
+        <v>5.407479284726893E-05</v>
       </c>
       <c r="T17">
-        <v>0.05028014793611453</v>
+        <v>5.407479284726893E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1428456666666667</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H18">
-        <v>0.428537</v>
+        <v>0.267062</v>
       </c>
       <c r="I18">
-        <v>0.03827024839310091</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J18">
-        <v>0.03827024839310091</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>0.047147</v>
       </c>
       <c r="O18">
-        <v>4.352450124452221E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P18">
-        <v>4.352450124452222E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q18">
-        <v>0.002244914882111111</v>
+        <v>0.001399019123777778</v>
       </c>
       <c r="R18">
-        <v>0.020204233939</v>
+        <v>0.012591172114</v>
       </c>
       <c r="S18">
-        <v>1.665693473813695E-06</v>
+        <v>7.195802690751955E-07</v>
       </c>
       <c r="T18">
-        <v>1.665693473813695E-06</v>
+        <v>7.195802690751955E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1428456666666667</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H19">
-        <v>0.428537</v>
+        <v>0.267062</v>
       </c>
       <c r="I19">
-        <v>0.03827024839310091</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J19">
-        <v>0.03827024839310091</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.5707266666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N19">
-        <v>364.71218</v>
+        <v>629.312088</v>
       </c>
       <c r="O19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q19">
-        <v>17.36585149785111</v>
+        <v>18.67392720505067</v>
       </c>
       <c r="R19">
-        <v>156.29266348066</v>
+        <v>168.065344845456</v>
       </c>
       <c r="S19">
-        <v>0.01288520368308409</v>
+        <v>0.009604864818871043</v>
       </c>
       <c r="T19">
-        <v>0.01288520368308409</v>
+        <v>0.009604864818871043</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,25 +1650,25 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1428456666666667</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H20">
-        <v>0.428537</v>
+        <v>0.267062</v>
       </c>
       <c r="I20">
-        <v>0.03827024839310091</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J20">
-        <v>0.03827024839310091</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,90 +1677,400 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>159.017985</v>
+        <v>196.552851</v>
       </c>
       <c r="N20">
-        <v>477.053955</v>
+        <v>589.658553</v>
       </c>
       <c r="O20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q20">
-        <v>22.715030079315</v>
+        <v>17.497265831254</v>
       </c>
       <c r="R20">
-        <v>204.435270713835</v>
+        <v>157.475392481286</v>
       </c>
       <c r="S20">
-        <v>0.01685421467962993</v>
+        <v>0.008999653429279284</v>
       </c>
       <c r="T20">
-        <v>0.01685421467962992</v>
+        <v>0.008999653429279284</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.08902066666666668</v>
+      </c>
+      <c r="H21">
+        <v>0.267062</v>
+      </c>
+      <c r="I21">
+        <v>0.02498643841412059</v>
+      </c>
+      <c r="J21">
+        <v>0.02498643841412059</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N21">
+        <v>414.554168</v>
+      </c>
+      <c r="O21">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P21">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q21">
+        <v>12.30129613493511</v>
+      </c>
+      <c r="R21">
+        <v>110.711665214416</v>
+      </c>
+      <c r="S21">
+        <v>0.00632712579285392</v>
+      </c>
+      <c r="T21">
+        <v>0.00632712579285392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.122805</v>
+      </c>
+      <c r="H22">
+        <v>0.368415</v>
+      </c>
+      <c r="I22">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="J22">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>1.180996</v>
+      </c>
+      <c r="N22">
+        <v>3.542988</v>
+      </c>
+      <c r="O22">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="P22">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="Q22">
+        <v>0.14503221378</v>
+      </c>
+      <c r="R22">
+        <v>1.30528992402</v>
+      </c>
+      <c r="S22">
+        <v>7.459677830176732E-05</v>
+      </c>
+      <c r="T22">
+        <v>7.459677830176732E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.122805</v>
+      </c>
+      <c r="H23">
+        <v>0.368415</v>
+      </c>
+      <c r="I23">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="J23">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.047147</v>
+      </c>
+      <c r="O23">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="P23">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="Q23">
+        <v>0.001929962445</v>
+      </c>
+      <c r="R23">
+        <v>0.017369662005</v>
+      </c>
+      <c r="S23">
+        <v>9.92668986345261E-07</v>
+      </c>
+      <c r="T23">
+        <v>9.92668986345261E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.122805</v>
+      </c>
+      <c r="H24">
+        <v>0.368415</v>
+      </c>
+      <c r="I24">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="J24">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>209.770696</v>
+      </c>
+      <c r="N24">
+        <v>629.312088</v>
+      </c>
+      <c r="O24">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="P24">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="Q24">
+        <v>25.76089032228</v>
+      </c>
+      <c r="R24">
+        <v>231.84801290052</v>
+      </c>
+      <c r="S24">
+        <v>0.01325001786942498</v>
+      </c>
+      <c r="T24">
+        <v>0.01325001786942498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.1428456666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.428537</v>
-      </c>
-      <c r="I21">
-        <v>0.03827024839310091</v>
-      </c>
-      <c r="J21">
-        <v>0.03827024839310091</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>80.47189100000001</v>
-      </c>
-      <c r="N21">
-        <v>241.415673</v>
-      </c>
-      <c r="O21">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="P21">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="Q21">
-        <v>11.49506091782234</v>
-      </c>
-      <c r="R21">
-        <v>103.455548260401</v>
-      </c>
-      <c r="S21">
-        <v>0.008529164336913083</v>
-      </c>
-      <c r="T21">
-        <v>0.00852916433691308</v>
+      <c r="G25">
+        <v>0.122805</v>
+      </c>
+      <c r="H25">
+        <v>0.368415</v>
+      </c>
+      <c r="I25">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="J25">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>196.552851</v>
+      </c>
+      <c r="N25">
+        <v>589.658553</v>
+      </c>
+      <c r="O25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q25">
+        <v>24.137672867055</v>
+      </c>
+      <c r="R25">
+        <v>217.239055803495</v>
+      </c>
+      <c r="S25">
+        <v>0.01241512202465318</v>
+      </c>
+      <c r="T25">
+        <v>0.01241512202465318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.122805</v>
+      </c>
+      <c r="H26">
+        <v>0.368415</v>
+      </c>
+      <c r="I26">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="J26">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N26">
+        <v>414.554168</v>
+      </c>
+      <c r="O26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q26">
+        <v>16.96977486708</v>
+      </c>
+      <c r="R26">
+        <v>152.72797380372</v>
+      </c>
+      <c r="S26">
+        <v>0.008728340418982397</v>
+      </c>
+      <c r="T26">
+        <v>0.008728340418982397</v>
       </c>
     </row>
   </sheetData>
